--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_Corentin-Celton/Hôpital_Corentin-Celton.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_Corentin-Celton/Hôpital_Corentin-Celton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Corentin-Celton</t>
+          <t>Hôpital_Corentin-Celton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’hôpital Corentin-Celton, ou hôpital des Petits-ménages avant 1945, est un hôpital de l’Assistance publique - Hôpitaux de Paris (AP-HP) situé à Issy-les-Moulineaux (Hauts-de-Seine, Île-de-France). L’hôpital accueille des externes de la faculté de médecine d'Université Paris Cité.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Corentin-Celton</t>
+          <t>Hôpital_Corentin-Celton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1863, l'hospice des Petits-ménages, situé rue de la Chaise à Paris (à l'emplacement du square Boucicaut)[1] et l'hospice Devillas, situé au 17 rue du Regard, sont transférés à Issy. C'est alors une maison de retraite destinée exclusivement aux couples âgés, ainsi qu'aux veufs et veuves capables de payer une modeste pension[2]. 
-Lors de la crue de la Seine de 1910, l'hôpital est fortement endommagé[2].
-En septembre 1914, les pensionnaires sont évacués et un service militaire médical les remplace[2].
-Grâce au matériel laissé pas les militaires, un service de chirurgie est créé en 1920, puis un service de médecine en 1932[2].
-Par décret du 9 février 1945, l'hôpital est renommé en l'honneur de Corentin Celton , un membre du personnel entré dans la Résistance, fusillé au Mont-Valérien le 29 décembre 1943[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1863, l'hospice des Petits-ménages, situé rue de la Chaise à Paris (à l'emplacement du square Boucicaut) et l'hospice Devillas, situé au 17 rue du Regard, sont transférés à Issy. C'est alors une maison de retraite destinée exclusivement aux couples âgés, ainsi qu'aux veufs et veuves capables de payer une modeste pension. 
+Lors de la crue de la Seine de 1910, l'hôpital est fortement endommagé.
+En septembre 1914, les pensionnaires sont évacués et un service militaire médical les remplace.
+Grâce au matériel laissé pas les militaires, un service de chirurgie est créé en 1920, puis un service de médecine en 1932.
+Par décret du 9 février 1945, l'hôpital est renommé en l'honneur de Corentin Celton , un membre du personnel entré dans la Résistance, fusillé au Mont-Valérien le 29 décembre 1943.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Corentin-Celton</t>
+          <t>Hôpital_Corentin-Celton</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Vues</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Portique
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Corentin-Celton</t>
+          <t>Hôpital_Corentin-Celton</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est desservi par la ligne de métro 12 à la station Corentin Celton.
 </t>
